--- a/biology/Zoologie/Cacatoès_nasique/Cacatoès_nasique.xlsx
+++ b/biology/Zoologie/Cacatoès_nasique/Cacatoès_nasique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_nasique</t>
+          <t>Cacatoès_nasique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacatua tenuirostris
 Le Cacatoès nasique (Cacatua tenuirostris) est une espèce d'oiseau de l'ordre des Psittaciformes et de la famille des Cacatuidae originaire d'Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_nasique</t>
+          <t>Cacatoès_nasique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 37 à 40 cm de long, a une envergure de 60 cm et une masse moyenne de 640 g (valeurs extrêmes de 500 et 650 g).
 Il est de couleur blanche, y compris le bec, avec du rose sur la face et le front. Il a des plumes légèrement roses sur le cou et le ventre et du jaune à la face inférieure de la queue et des ailes. Il a une huppe très réduite pas toujours visible, une queue courte et surtout une mandibule supérieure très longue. Celle des immatures est plus courte.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_nasique</t>
+          <t>Cacatoès_nasique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans le sud-est de l'Australie depuis l'ouest de l'État de Victoria jusqu'au sud de la Nouvelle-Galles du Sud. On le trouve également dans le Sud-Ouest de l'Australie, notamment à Perth où il est très fréquent de le voir dans les parcs publics.
 On le trouve dans les bois, les savanes, les prairies, les cultures et les parcs urbains.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_nasique</t>
+          <t>Cacatoès_nasique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de graines, de bulbes, d'herbes et surtout de céréales. Il mange aussi des insectes.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_nasique</t>
+          <t>Cacatoès_nasique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cacatoès nasique vit en couples. Il s'installe dans le creux d'un tronc d'eucalyptus où la femelle pond 2 ou 3 œufs, quelquefois 4. Les deux parents couvent 24 ou 25 jours et élèvent les petits qui demeurent environ 8 semaines dans le nid.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_nasique</t>
+          <t>Cacatoès_nasique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Animaux de compagnie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des animaux de compagnie très appréciés en Australie à cause de leur capacité à répéter les mots et des phrases. Ils sont considérés comme les meilleurs oiseaux parleurs d'Australie et l'un des meilleurs au monde.
 </t>
